--- a/trunk/Documentos/Requerimientos.xlsx
+++ b/trunk/Documentos/Requerimientos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos funcionales" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>N°</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>NF05</t>
+  </si>
+  <si>
+    <t>NF06</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir que la contraseña del usuario sea por lo minimo de 6 letras y que contenga letras y numeros.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -590,11 +596,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,61 +627,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -984,32 +1027,32 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1017,7 +1060,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1025,7 +1068,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1033,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1041,7 +1084,7 @@
       </c>
     </row>
     <row r="10" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1049,7 +1092,7 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1057,7 +1100,7 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1065,7 +1108,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1073,29 +1116,29 @@
       </c>
     </row>
     <row r="14" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1103,7 +1146,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1111,7 +1154,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1119,7 +1162,7 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1127,29 +1170,29 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1157,7 +1200,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1165,7 +1208,7 @@
       </c>
     </row>
     <row r="26" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1173,7 +1216,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1181,29 +1224,29 @@
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1211,7 +1254,7 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1219,7 +1262,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1241,65 +1284,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D10"/>
+  <dimension ref="B4:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="24"/>
+    <col min="2" max="2" width="8.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="2:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="2:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="2:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -1307,8 +1352,18 @@
       </c>
       <c r="D10" s="23"/>
     </row>
+    <row r="11" spans="2:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
